--- a/changes/45-barrels.xlsx
+++ b/changes/45-barrels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4296A155-E021-4267-8299-1B5ADE491F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECAFE7C-A445-4EFF-8BCA-5732BD590ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -963,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1072,14 +1072,14 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>-38</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3" s="1">
         <f>C3-D3*20-E3*0.8-F3*0.6-H3*5+I3*10+J3/300</f>
-        <v>-5.2</v>
+        <v>-5.1266666666666669</v>
       </c>
       <c r="P3">
         <v>0.06</v>
@@ -1118,14 +1118,14 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>-38</v>
       </c>
       <c r="M4">
         <v>600</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" ref="N4:N22" si="0">C4-D4*20-E4*0.8-F4*0.6-H4*5+I4*10+J4/300</f>
-        <v>-7.85</v>
+        <v>-7.9766666666666666</v>
       </c>
       <c r="P4">
         <v>0.06</v>
@@ -1164,14 +1164,14 @@
         <v>0.1</v>
       </c>
       <c r="J5">
-        <v>300</v>
+        <v>54</v>
       </c>
       <c r="M5">
         <v>1000</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="0"/>
-        <v>-7.2999999999999989</v>
+        <v>-8.1199999999999992</v>
       </c>
       <c r="P5">
         <v>0.06</v>
